--- a/datatype_format_function/データ型書式設定関数調査.xlsx
+++ b/datatype_format_function/データ型書式設定関数調査.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{21801C93-B84D-4B69-A469-332560B15F55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{A8C4B247-26A9-46FE-85E1-0E4887BF3F36}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{21801C93-B84D-4B69-A469-332560B15F55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{E9806C78-1395-4669-975F-E7E69CA380D0}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="316">
   <si>
     <t>説明</t>
   </si>
@@ -872,12 +872,5813 @@
     </r>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>演算子</t>
+  </si>
+  <si>
+    <t>日付に日数を加算</t>
+  </si>
+  <si>
+    <t>時刻間隔を日付に加算</t>
+  </si>
+  <si>
+    <t>日付に時刻を加算</t>
+  </si>
+  <si>
+    <t>時間間隔を加算</t>
+  </si>
+  <si>
+    <t>時間間隔をタイムスタンプに加算</t>
+  </si>
+  <si>
+    <t>時間間隔を時分に加算</t>
+  </si>
+  <si>
+    <t>時間間隔の符号を反転</t>
+  </si>
+  <si>
+    <t>日付を減算し、経過日数を返す</t>
+  </si>
+  <si>
+    <t>日付から日数を減算</t>
+  </si>
+  <si>
+    <t>日付から時間間隔を減算</t>
+  </si>
+  <si>
+    <t>時分を減算</t>
+  </si>
+  <si>
+    <t>時分から時刻間隔を減算</t>
+  </si>
+  <si>
+    <t>タイムスタンプから時刻間隔を減算</t>
+  </si>
+  <si>
+    <t>時間間隔を減算</t>
+  </si>
+  <si>
+    <t>時間間隔にスカラーを乗算</t>
+  </si>
+  <si>
+    <t>時間間隔をスカラーで除算</t>
+  </si>
+  <si>
+    <r>
+      <t>date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>integer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>date</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>date '2001-09-28' + 7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2001-10-05</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>interval</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>time</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>interval</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>interval</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>- interval '23 hours'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>-23:00:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>date '2001-10-01' - date '2001-09-28'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>タイムスタンプを減算（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>justify_hours()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>と同様に24時間間隔を日数に変換）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>interval '1 hour' * 3.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>03:30:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>date '2001-09-28' + interval '1 hour'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2001-09-28 01:00:00</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>interval</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>timestamp</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>date '2001-09-28' + time '03:00'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2001-09-28 03:00:00</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>timestamp</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>interval '1 day' + interval '1 hour'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>1 day 01:00:00</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>interval</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>interval</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>interval</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>timestamp '2001-09-28 01:00' + interval '23 hours'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2001-09-29 00:00:00</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>timestamp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>interval</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>timestamp</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>time '01:00' + interval '3 hours'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>04:00:00</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>integer</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>integer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>date</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>date '2001-10-01' - 7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2001-09-24</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>date '2001-09-28' - interval '1 hour'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2001-09-27 23:00:00</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>interval</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>timestamp</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>time '05:00' - time '03:00'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>02:00:00</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>interval</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>time '05:00' - interval '2 hours'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>03:00:00</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>interval</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>time</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>timestamp '2001-09-28 23:00' - interval '23 hours'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2001-09-28 00:00:00</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>timestamp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>interval</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>timestamp</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>interval '1 day' - interval '1 hour'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>1 day -01:00:00</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>interval</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>interval</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>interval</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>timestamp '2001-09-29 03:00' - timestamp '2001-07-27 12:00'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>63 days 15:00:00</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>timestamp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>timestamp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>interval</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>interval '1 day' * 21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>21 days</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>interval '1 second' * 900</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>00:15:00</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>interval</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>double precision</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>interval</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>interval '1 hour' / 1.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>00:40:00</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>interval</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>double precision</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>interval</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>select date '2001-09-28' + 7 as "date + integer",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       date '2001-09-28' + interval '1 hour' as "date + interval",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       date '2001-09-28' + time '03:00' as "date + time",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       interval '1 day' + interval '1 hour' as "interval + interval",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       timestamp '2001-09-28 01:00' + interval '23 hours' as "timestamp + interval",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       time '01:00' + interval '3 hours' as "timestamp + interval",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       - interval '23 hours' as "- interval",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       date '2001-10-01' - date '2001-09-28' as "date - date",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       date '2001-10-01' - 7 as "date - integer",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       date '2001-09-28' - interval '1 hour' as "date - interval",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       time '05:00' - time '03:00' as "time - time",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       time '05:00' - interval '2 hours' as "time - interval",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       timestamp '2001-09-28 23:00' - interval '23 hours' as "timestamp - interval",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       interval '1 day' - interval '1 hour' as "interval - interval",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       timestamp '2001-09-29 03:00' - timestamp '2001-07-27 12:00' as "timestamp - timestamp",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       interval '1 second' * 900 as "interval * double precision",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       interval '1 hour' / 1.5 as "interval / double precision"</t>
+  </si>
+  <si>
+    <t>表9.31 日付/時刻演算子</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1)日付/時刻演算子の動作確認</t>
+    <rPh sb="11" eb="13">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>date + integer</t>
+  </si>
+  <si>
+    <t>date + interval</t>
+  </si>
+  <si>
+    <t>date + time</t>
+  </si>
+  <si>
+    <t>interval + interval</t>
+  </si>
+  <si>
+    <t>timestamp + interval</t>
+  </si>
+  <si>
+    <t>- interval</t>
+  </si>
+  <si>
+    <t>date - date</t>
+  </si>
+  <si>
+    <t>date - integer</t>
+  </si>
+  <si>
+    <t>date - interval</t>
+  </si>
+  <si>
+    <t>time - time</t>
+  </si>
+  <si>
+    <t>time - interval</t>
+  </si>
+  <si>
+    <t>timestamp - interval</t>
+  </si>
+  <si>
+    <t>interval - interval</t>
+  </si>
+  <si>
+    <t>timestamp - timestamp</t>
+  </si>
+  <si>
+    <t>interval * double precision</t>
+  </si>
+  <si>
+    <t>interval / double precision</t>
+  </si>
+  <si>
+    <t>1 day 01:00:00</t>
+  </si>
+  <si>
+    <t>-23:00:00</t>
+  </si>
+  <si>
+    <t>1 day -01:00:00</t>
+  </si>
+  <si>
+    <t>63 days 15:00:00</t>
+  </si>
+  <si>
+    <t>日付が有限（+/-無限でない）かどうかの検査</t>
+  </si>
+  <si>
+    <t>タイムスタンプが有限（+/-無限でない）かどうかの検査</t>
+  </si>
+  <si>
+    <t>時間間隔が有限かどうかの検査（今の所常に真）</t>
+  </si>
+  <si>
+    <t>30日周期が1月を表すように時間間隔を調整</t>
+  </si>
+  <si>
+    <t>24時間を1日とする時間間隔の調整</t>
+  </si>
+  <si>
+    <t>年、月、日フィールドから日付を作成</t>
+  </si>
+  <si>
+    <t>年、月、週、日、時間、分、秒フィールドから時間間隔を作成</t>
+  </si>
+  <si>
+    <t>時、分、秒フィールドから時刻を作成</t>
+  </si>
+  <si>
+    <t>年、月、日、時、分、秒フィールドから時刻を作成</t>
+  </si>
+  <si>
+    <t>Unixエポック時間（1970-01-01 00:00:00+00からの経過秒数）をtimestamp with time zoneに変換</t>
+  </si>
+  <si>
+    <t>現在の日付と時刻（文実行中に変化する）。9.9.4を参照。</t>
+  </si>
+  <si>
+    <t>現在の日付。9.9.4を参照</t>
+  </si>
+  <si>
+    <t>現在の時刻。9.9.4を参照。</t>
+  </si>
+  <si>
+    <t>精度を限定した現在の時刻。9.9.4を参照。</t>
+  </si>
+  <si>
+    <t>現在の日付と時刻（現在のトランザクションの開始時）。9.9.4を参照。</t>
+  </si>
+  <si>
+    <t>精度を限定した現在の日付と時刻（現在のトランザクションの開始時）。9.9.4を参照。</t>
+  </si>
+  <si>
+    <t>タイムスタンプの部分フィールドの取得（extractと同じ）。9.9.1を参照。</t>
+  </si>
+  <si>
+    <t>時間間隔の部分フィールドの取得（extractと同じ）。9.9.1を参照。</t>
+  </si>
+  <si>
+    <t>指定された精度で切り捨て。9.9.2参照。</t>
+  </si>
+  <si>
+    <t>指定された時間帯において指定された精度で切り捨て。9.9.2参照</t>
+  </si>
+  <si>
+    <t>タイムスタンプの部分フィールドの取得。9.9.1を参照。</t>
+  </si>
+  <si>
+    <t>時間間隔の部分フィールドの取得。9.9.1を参照。</t>
+  </si>
+  <si>
+    <t>現在の日付と時刻（現在の文の開始時）。9.9.4を参照。</t>
+  </si>
+  <si>
+    <t>現在の日付と時刻（clock_timestampと似ているが、text型文字列として返す）。9.9.4を参照。</t>
+  </si>
+  <si>
+    <r>
+      <t>引数間の減算。日数だけでなく年と月を使用した</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「言葉による」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>結果を生成</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>current_date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（午前零時時点）から引数を減算</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>current_date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>date</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>current_time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>14:39:53.662522-05</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>current_time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>integer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ) → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>time with time zone</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>current_timestamp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>timestamp with time zone</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>date_part</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>timestamp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ) → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>double precision</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>date_trunc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>timestamp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ) → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>timestamp</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>date_trunc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>timestamp with time zone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ) → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>timestamp with time zone</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>date_trunc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>interval</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ) → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>interval</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>extract</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>timestamp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ) → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>double precision</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>extract</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>interval</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ) → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>double precision</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>isfinite</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ) → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>boolean</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>isfinite</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>timestamp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ) → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>boolean</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>isfinite</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>interval</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ) → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>boolean</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>justify_days</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>interval</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ) → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>interval</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>justify_hours</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>interval</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ) → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>interval</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>justify_interval</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>interval</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ) → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>interval</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>justify_days</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>および</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>justify_hours</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を使用し、さらに符号による調整を行っての時間間隔の調整</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>localtime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>time</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>localtime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>integer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ) → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>time</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>localtimestamp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>timestamp</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>localtimestamp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>integer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ) → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>timestamp</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>make_date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>year</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>month</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>day</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ) → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>date</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>make_interval</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ( [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>years</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> [, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>months</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> [, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>weeks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> [, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>days</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> [, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>hours</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> [, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>mins</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> [, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>secs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>double precision</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ]]]]]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>] ) → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>interval</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>make_time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>hour</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>min</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>sec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>double precision</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ) → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>time</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>make_timestamp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>year</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>month</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>day</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>hour</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>min</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>sec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>double precision</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ) → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>timestamp</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>make_timestamptz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>year</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>month</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>day</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>hour</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>min</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>sec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>double precision</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>timezone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF440000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>] ) → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>timestamp with time zone</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>年、月、日、時、分、秒フィールドから時間帯付きの時刻を作成。</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>timezone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>が指定されていなければ、現在の時間帯が使われる。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>now</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ( ) → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>timestamp with time zone</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>statement_timestamp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ( ) → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>timestamp with time zone</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>timeofday</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ( ) → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>text</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>transaction_timestamp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ( ) → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>timestamp with time zone</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>age(timestamp '2001-04-10', timestamp '1957-06-13')</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>43 years 9 mons 27 days</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>timestamp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>timestamp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ) → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>interval</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>age(timestamp '1957-06-13')</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>62 years 6 mons 10 days</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>timestamp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ) → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>interval</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>clock_timestamp()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2019-12-23 14:39:53.662522-05</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>clock_timestamp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ( ) → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>timestamp with time zone</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>current_date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2019-12-23</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>current_time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>time with time zone</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>current_time(2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>14:39:53.66-05</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>current_timestamp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2019-12-23 14:39:53.662522-05</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>current_timestamp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>integer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ) → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>timestamp with time zone</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>current_timestamp(0)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2019-12-23 14:39:53-05</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>date_part('hour', timestamp '2001-02-16 20:38:40')</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>date_part</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>interval</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ) → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>double precision</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>date_part('month', interval '2 years 3 months')</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>date_trunc('hour', timestamp '2001-02-16 20:38:40')</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2001-02-16 20:00:00</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>date_trunc('day', timestamptz '2001-02-16 20:38:40+00', 'Australia/Sydney')</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2001-02-16 13:00:00+00</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>date_trunc('hour', interval '2 days 3 hours 40 minutes')</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2 days 03:00:00</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>extract(hour from timestamp '2001-02-16 20:38:40')</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>extract(month from interval '2 years 3 months')</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>isfinite(date '2001-02-16')</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>isfinite(timestamp 'infinity')</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>isfinite(interval '4 hours')</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>justify_days(interval '35 days')</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>1 mon 5 days</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>justify_hours(interval '27 hours')</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>1 day 03:00:00</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>justify_interval(interval '1 mon -1 hour')</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>29 days 23:00:00</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>localtime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>14:39:53.662522</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>localtime(0)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>14:39:53</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>localtimestamp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2019-12-23 14:39:53.662522</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>localtimestamp(2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2019-12-23 14:39:53.66</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>make_date(2013, 7, 15)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2013-07-15</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>make_interval(days =&gt; 10)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>10 days</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>make_time(8, 15, 23.5)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>08:15:23.5</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>make_timestamp(2013, 7, 15, 8, 15, 23.5)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2013-07-15 08:15:23.5</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>make_timestamptz(2013, 7, 15, 8, 15, 23.5)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2013-07-15 08:15:23.5+01</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>now()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2019-12-23 14:39:53.662522-05</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>statement_timestamp()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2019-12-23 14:39:53.662522-05</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>timeofday()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Mon Dec 23 14:39:53.662522 2019 EST</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>transaction_timestamp()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2019-12-23 14:39:53.662522-05</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>to_timestamp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>double precision</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> ) → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>timestamp with time zone</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>to_timestamp(1284352323)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2010-09-13 04:32:03+00</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>select age(timestamp '2001-04-10', timestamp '1957-06-13') as "age ( timestamp, timestamp )",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       age(timestamp '1957-06-13') as "age ( timestamp )",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       clock_timestamp(),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       current_date,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       current_time,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       current_time(2),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       current_timestamp,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       current_timestamp(0),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       date_part('hour', timestamp '2001-02-16 20:38:40'),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       date_part('month', interval '2 years 3 months'),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       date_trunc('hour', timestamp '2001-02-16 20:38:40'),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       date_trunc('day', timestamptz '2001-02-16 20:38:40+00', 'Asia/Tokyo'),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       date_trunc('hour', interval '2 days 3 hours 40 minutes'),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       extract(hour from timestamp '2001-02-16 20:38:40'),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       extract(month from interval '2 years 3 months'),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       isfinite(date '2001-02-16'),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       isfinite(timestamp 'infinity'),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       isfinite(interval '4 hours'),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       justify_days(interval '35 days'),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       justify_hours(interval '27 hours'),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       justify_interval(interval '1 mon -1 hour'),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       localtime,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       localtime(0),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       localtimestamp,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       localtimestamp(2),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       make_date(2013, 7, 15),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       make_interval(days =&gt; 10),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       make_time(8, 15, 23.5),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       make_timestamp(2013, 7, 15, 8, 15, 23.5),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       make_timestamptz(2013, 7, 15, 8, 15, 23.5),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       now(),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       timeofday(),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       transaction_timestamp(),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       to_timestamp(1284352323) </t>
+  </si>
+  <si>
+    <t>表9.32 日付/時刻関数演算子</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1)日付/時刻関数演算子の動作確認</t>
+    <rPh sb="13" eb="15">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>age ( timestamp, timestamp )</t>
+  </si>
+  <si>
+    <t>age ( timestamp )</t>
+  </si>
+  <si>
+    <t>clock_timestamp</t>
+  </si>
+  <si>
+    <t>current_date</t>
+  </si>
+  <si>
+    <t>current_time</t>
+  </si>
+  <si>
+    <t>current_timestamp</t>
+  </si>
+  <si>
+    <t>date_part</t>
+  </si>
+  <si>
+    <t>date_trunc</t>
+  </si>
+  <si>
+    <t>isfinite</t>
+  </si>
+  <si>
+    <t>justify_days</t>
+  </si>
+  <si>
+    <t>justify_hours</t>
+  </si>
+  <si>
+    <t>justify_interval</t>
+  </si>
+  <si>
+    <t>localtime</t>
+  </si>
+  <si>
+    <t>localtimestamp</t>
+  </si>
+  <si>
+    <t>make_date</t>
+  </si>
+  <si>
+    <t>make_interval</t>
+  </si>
+  <si>
+    <t>make_time</t>
+  </si>
+  <si>
+    <t>make_timestamp</t>
+  </si>
+  <si>
+    <t>make_timestamptz</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>statement_timestamp</t>
+  </si>
+  <si>
+    <t>timeofday</t>
+  </si>
+  <si>
+    <t>transaction_timestamp</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>43 years 9 mons 27 days</t>
+  </si>
+  <si>
+    <t>64 years 7 mons 3 days</t>
+  </si>
+  <si>
+    <t>2022-01-16 19:41:48.468321+09</t>
+  </si>
+  <si>
+    <t>19:41:48.467613+09</t>
+  </si>
+  <si>
+    <t>19:41:48.47+09</t>
+  </si>
+  <si>
+    <t>2022-01-16 19:41:48.467613+09</t>
+  </si>
+  <si>
+    <t>2022-01-16 19:41:48+09</t>
+  </si>
+  <si>
+    <t>2001-02-17 00:00:00+09</t>
+  </si>
+  <si>
+    <t>2 days 03:00:00</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>1 mon 5 days</t>
+  </si>
+  <si>
+    <t>1 day 03:00:00</t>
+  </si>
+  <si>
+    <t>29 days 23:00:00</t>
+  </si>
+  <si>
+    <t>10 days</t>
+  </si>
+  <si>
+    <t>2013-07-15 08:15:23.5+09</t>
+  </si>
+  <si>
+    <t>Sun Jan 16 19:41:48.468330 2022 JST</t>
+  </si>
+  <si>
+    <t>2010-09-13 13:32:03+09</t>
+  </si>
+  <si>
+    <t>■遅延実行</t>
+    <rPh sb="1" eb="3">
+      <t>チエン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以下の関数は、サーバプロセスの実行を遅延させるために使用可能です。</t>
+  </si>
+  <si>
+    <t>pg_sleep_for ( interval )</t>
+  </si>
+  <si>
+    <t>pg_sleep_until ( timestamp with time zone )</t>
+  </si>
+  <si>
+    <t>pg_sleep ( double precision )</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       statement_timestamp(),</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>select pg_sleep (10)</t>
+  </si>
+  <si>
+    <t>select current_timestamp as "トランザクション開始時",clock_timestamp() as "pg_sleep直後"</t>
+  </si>
+  <si>
+    <t>トランザクション開始時</t>
+  </si>
+  <si>
+    <t>pg_sleep直後</t>
+  </si>
+  <si>
+    <t>2022-01-16 19:52:07.99818+09</t>
+  </si>
+  <si>
+    <t>2022-01-16 19:52:18.00755+09</t>
+  </si>
+  <si>
+    <t>1)pg_sleep動作確認</t>
+    <rPh sb="10" eb="12">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※無限ループに遅延実行を挟むとデッドロック検出テストに使用できるかも</t>
+    <rPh sb="1" eb="3">
+      <t>ムゲン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チエン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハサ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -959,8 +6760,53 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF440000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF440000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF440000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1003,8 +6849,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1049,12 +6901,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCFCFCF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCFCFCF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCFCFCF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCFCFCF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1106,6 +6973,64 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="47" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1388,10 +7313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F26F7EB-7B22-4BC6-9C6E-17EEF59BEDFB}">
-  <dimension ref="B1:F35"/>
+  <dimension ref="B1:AJ288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A269" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B289" sqref="B289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1406,10 +7331,19 @@
     <col min="8" max="8" width="11.25" style="2" customWidth="1"/>
     <col min="9" max="9" width="9.625" style="2" customWidth="1"/>
     <col min="10" max="10" width="10.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="2"/>
+    <col min="11" max="11" width="9.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="14" max="14" width="9" style="2"/>
+    <col min="15" max="16" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="22" width="9" style="2"/>
+    <col min="23" max="23" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9" style="2"/>
+    <col min="29" max="30" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" s="1" customFormat="1" ht="28.5">
@@ -1584,12 +7518,1577 @@
       </c>
       <c r="F35" s="6"/>
     </row>
+    <row r="38" spans="2:6" ht="45">
+      <c r="B38" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="23.25" thickBot="1">
+      <c r="B39" s="21"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="19.5" thickBot="1">
+      <c r="B42" s="24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="38.25" thickBot="1">
+      <c r="B45" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="35.25">
+      <c r="B46" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="52.5" thickBot="1">
+      <c r="B48" s="30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="35.25">
+      <c r="B49" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="52.5" thickBot="1">
+      <c r="B51" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" ht="35.25">
+      <c r="B52" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" ht="52.5" thickBot="1">
+      <c r="B54" s="30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" ht="37.5">
+      <c r="B55" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" ht="37.5">
+      <c r="B56" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" ht="69" thickBot="1">
+      <c r="B57" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" ht="36" thickBot="1">
+      <c r="B60" s="30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" ht="36" thickBot="1">
+      <c r="B63" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="37.5">
+      <c r="B65" s="29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" ht="36" thickBot="1">
+      <c r="B66" s="30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" ht="38.25" thickBot="1">
+      <c r="B69" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" ht="35.25">
+      <c r="B70" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" ht="37.5">
+      <c r="B71" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" ht="52.5" thickBot="1">
+      <c r="B72" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" ht="36" thickBot="1">
+      <c r="B75" s="27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" ht="37.5">
+      <c r="B77" s="29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" ht="36" thickBot="1">
+      <c r="B78" s="30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" ht="35.25">
+      <c r="B79" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" ht="37.5">
+      <c r="B80" s="26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" ht="69" thickBot="1">
+      <c r="B81" s="27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" ht="35.25">
+      <c r="B82" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" ht="52.5" thickBot="1">
+      <c r="B84" s="30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" ht="37.5">
+      <c r="B85" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" ht="75">
+      <c r="B86" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" ht="69" thickBot="1">
+      <c r="B87" s="27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" ht="37.5">
+      <c r="B88" s="28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" ht="37.5">
+      <c r="B89" s="29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" ht="35.25">
+      <c r="B90" s="31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" ht="35.25">
+      <c r="B91" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" ht="38.25" thickBot="1">
+      <c r="B92" s="30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" ht="37.5">
+      <c r="B93" s="25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" ht="37.5">
+      <c r="B94" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" ht="38.25" thickBot="1">
+      <c r="B95" s="27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6">
+      <c r="B98" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" s="5" customFormat="1">
+      <c r="B99" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F99" s="6"/>
+    </row>
+    <row r="100" spans="2:6" s="5" customFormat="1">
+      <c r="B100" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F100" s="6"/>
+    </row>
+    <row r="101" spans="2:6" s="5" customFormat="1">
+      <c r="B101" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F101" s="6"/>
+    </row>
+    <row r="102" spans="2:6" s="5" customFormat="1">
+      <c r="B102" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F102" s="6"/>
+    </row>
+    <row r="103" spans="2:6" s="5" customFormat="1">
+      <c r="B103" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F103" s="6"/>
+    </row>
+    <row r="104" spans="2:6" s="5" customFormat="1">
+      <c r="B104" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F104" s="6"/>
+    </row>
+    <row r="105" spans="2:6" s="5" customFormat="1">
+      <c r="B105" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F105" s="6"/>
+    </row>
+    <row r="106" spans="2:6" s="5" customFormat="1">
+      <c r="B106" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F106" s="6"/>
+    </row>
+    <row r="107" spans="2:6" s="5" customFormat="1">
+      <c r="B107" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F107" s="6"/>
+    </row>
+    <row r="108" spans="2:6" s="5" customFormat="1">
+      <c r="B108" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F108" s="6"/>
+    </row>
+    <row r="109" spans="2:6" s="5" customFormat="1">
+      <c r="B109" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F109" s="6"/>
+    </row>
+    <row r="110" spans="2:6" s="5" customFormat="1">
+      <c r="B110" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F110" s="6"/>
+    </row>
+    <row r="111" spans="2:6" s="5" customFormat="1">
+      <c r="B111" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F111" s="6"/>
+    </row>
+    <row r="112" spans="2:6" s="5" customFormat="1">
+      <c r="B112" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F112" s="6"/>
+    </row>
+    <row r="113" spans="2:18" s="5" customFormat="1">
+      <c r="B113" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F113" s="6"/>
+    </row>
+    <row r="114" spans="2:18" s="5" customFormat="1">
+      <c r="B114" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F114" s="6"/>
+    </row>
+    <row r="115" spans="2:18" s="5" customFormat="1">
+      <c r="B115" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F115" s="6"/>
+    </row>
+    <row r="117" spans="2:18" s="5" customFormat="1">
+      <c r="B117" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I117" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="J117" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="K117" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="L117" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="M117" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="N117" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="O117" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="P117" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q117" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="R117" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="118" spans="2:18" s="5" customFormat="1">
+      <c r="B118" s="32">
+        <v>37169</v>
+      </c>
+      <c r="C118" s="33">
+        <v>37162.041666666664</v>
+      </c>
+      <c r="D118" s="33">
+        <v>37162.125</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F118" s="34">
+        <v>37163</v>
+      </c>
+      <c r="G118" s="35">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I118" s="5">
+        <v>3</v>
+      </c>
+      <c r="J118" s="32">
+        <v>37158</v>
+      </c>
+      <c r="K118" s="33">
+        <v>37161.958333333336</v>
+      </c>
+      <c r="L118" s="35">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="M118" s="35">
+        <v>0.125</v>
+      </c>
+      <c r="N118" s="33">
+        <v>37162</v>
+      </c>
+      <c r="O118" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="P118" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q118" s="35">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="R118" s="35">
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="2:18" ht="45">
+      <c r="B121" s="20" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="122" spans="2:18" ht="23.25" thickBot="1">
+      <c r="B122" s="21"/>
+    </row>
+    <row r="123" spans="2:18">
+      <c r="B123" s="22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="2:18">
+      <c r="B124" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:18" ht="19.5" thickBot="1">
+      <c r="B125" s="24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="2:18" ht="37.5">
+      <c r="B126" s="25" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="127" spans="2:18" ht="75">
+      <c r="B127" s="26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="128" spans="2:18" ht="69" thickBot="1">
+      <c r="B128" s="27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" ht="35.25">
+      <c r="B129" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" ht="56.25">
+      <c r="B130" s="31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" ht="52.5" thickBot="1">
+      <c r="B131" s="30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" ht="54">
+      <c r="B132" s="25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" ht="56.25">
+      <c r="B133" s="36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" ht="52.5" thickBot="1">
+      <c r="B134" s="27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" ht="37.5">
+      <c r="B136" s="37" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" ht="36" thickBot="1">
+      <c r="B137" s="30" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" ht="35.25">
+      <c r="B138" s="25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" ht="37.5">
+      <c r="B139" s="36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" ht="36" thickBot="1">
+      <c r="B140" s="27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" ht="54">
+      <c r="B141" s="28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" ht="37.5">
+      <c r="B142" s="37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" ht="36" thickBot="1">
+      <c r="B143" s="30" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" ht="51.75">
+      <c r="B144" s="25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" ht="75">
+      <c r="B145" s="36" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" ht="52.5" thickBot="1">
+      <c r="B146" s="27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" ht="54">
+      <c r="B147" s="28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" ht="75">
+      <c r="B148" s="37" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" ht="54.75" thickBot="1">
+      <c r="B149" s="30" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" ht="54">
+      <c r="B150" s="25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" ht="75">
+      <c r="B151" s="36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" ht="52.5" thickBot="1">
+      <c r="B152" s="27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" ht="54">
+      <c r="B153" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" ht="75">
+      <c r="B154" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" ht="52.5" thickBot="1">
+      <c r="B155" s="30" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" ht="54">
+      <c r="B156" s="25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" ht="37.5">
+      <c r="B157" s="36" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" ht="69" thickBot="1">
+      <c r="B158" s="27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" ht="87">
+      <c r="B159" s="28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" ht="56.25">
+      <c r="B160" s="37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" ht="102" thickBot="1">
+      <c r="B161" s="30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" ht="37.5">
+      <c r="B162" s="25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" ht="37.5">
+      <c r="B163" s="36" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" ht="69" thickBot="1">
+      <c r="B164" s="27" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" ht="54">
+      <c r="B165" s="28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" ht="56.25">
+      <c r="B166" s="37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" ht="52.5" thickBot="1">
+      <c r="B167" s="30" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" ht="54">
+      <c r="B168" s="25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" ht="56.25">
+      <c r="B169" s="36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" ht="52.5" thickBot="1">
+      <c r="B170" s="27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" ht="35.25">
+      <c r="B171" s="28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" ht="56.25">
+      <c r="B172" s="29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" ht="36" thickBot="1">
+      <c r="B173" s="30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" ht="37.5">
+      <c r="B174" s="25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" ht="56.25">
+      <c r="B175" s="26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" ht="36" thickBot="1">
+      <c r="B176" s="27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" ht="35.25">
+      <c r="B177" s="28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" ht="56.25">
+      <c r="B178" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" ht="36" thickBot="1">
+      <c r="B179" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" ht="37.5">
+      <c r="B180" s="25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" ht="37.5">
+      <c r="B181" s="26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" ht="36" thickBot="1">
+      <c r="B182" s="27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" ht="37.5">
+      <c r="B183" s="28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" ht="37.5">
+      <c r="B184" s="29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" ht="52.5" thickBot="1">
+      <c r="B185" s="30" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" ht="37.5">
+      <c r="B186" s="25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" ht="93.75">
+      <c r="B187" s="38" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" ht="52.5" thickBot="1">
+      <c r="B188" s="27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" ht="37.5">
+      <c r="B190" s="37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" ht="36" thickBot="1">
+      <c r="B191" s="30" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" ht="37.5">
+      <c r="B192" s="25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" ht="37.5">
+      <c r="B193" s="36" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" ht="36" thickBot="1">
+      <c r="B194" s="27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" ht="35.25">
+      <c r="B195" s="28" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" ht="75">
+      <c r="B196" s="37" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" ht="52.5" thickBot="1">
+      <c r="B197" s="30" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" ht="37.5">
+      <c r="B198" s="25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" ht="75">
+      <c r="B199" s="36" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" ht="52.5" thickBot="1">
+      <c r="B200" s="27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" ht="56.25">
+      <c r="B201" s="28" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" ht="37.5">
+      <c r="B202" s="29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" ht="36" thickBot="1">
+      <c r="B203" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" ht="112.5">
+      <c r="B204" s="25" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" ht="56.25">
+      <c r="B205" s="26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2" ht="36" thickBot="1">
+      <c r="B206" s="27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" ht="56.25">
+      <c r="B207" s="28" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" ht="37.5">
+      <c r="B208" s="29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" ht="36" thickBot="1">
+      <c r="B209" s="30" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" ht="110.25">
+      <c r="B210" s="25" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" ht="56.25">
+      <c r="B211" s="26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" ht="52.5" thickBot="1">
+      <c r="B212" s="27" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" ht="129">
+      <c r="B213" s="28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" ht="112.5">
+      <c r="B214" s="29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" ht="71.25" thickBot="1">
+      <c r="B215" s="30" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" ht="35.25">
+      <c r="B216" s="25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" ht="75">
+      <c r="B217" s="36" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" ht="36" thickBot="1">
+      <c r="B218" s="27" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" ht="54">
+      <c r="B219" s="28" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" ht="56.25">
+      <c r="B220" s="37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" ht="52.5" thickBot="1">
+      <c r="B221" s="30" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2">
+      <c r="B222" s="25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" ht="93.75">
+      <c r="B223" s="36" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" ht="69" thickBot="1">
+      <c r="B224" s="27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="225" spans="2:6" ht="54">
+      <c r="B225" s="28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="226" spans="2:6" ht="75">
+      <c r="B226" s="37" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="227" spans="2:6" ht="52.5" thickBot="1">
+      <c r="B227" s="30" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="228" spans="2:6" ht="70.5">
+      <c r="B228" s="25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="229" spans="2:6" ht="112.5">
+      <c r="B229" s="26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="230" spans="2:6" ht="52.5" thickBot="1">
+      <c r="B230" s="27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="232" spans="2:6">
+      <c r="B232" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="233" spans="2:6" s="5" customFormat="1">
+      <c r="B233" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F233" s="6"/>
+    </row>
+    <row r="234" spans="2:6" s="5" customFormat="1">
+      <c r="B234" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F234" s="6"/>
+    </row>
+    <row r="235" spans="2:6" s="5" customFormat="1">
+      <c r="B235" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="F235" s="6"/>
+    </row>
+    <row r="236" spans="2:6" s="5" customFormat="1">
+      <c r="B236" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F236" s="6"/>
+    </row>
+    <row r="237" spans="2:6" s="5" customFormat="1">
+      <c r="B237" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F237" s="6"/>
+    </row>
+    <row r="238" spans="2:6" s="5" customFormat="1">
+      <c r="B238" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F238" s="6"/>
+    </row>
+    <row r="239" spans="2:6" s="5" customFormat="1">
+      <c r="B239" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F239" s="6"/>
+    </row>
+    <row r="240" spans="2:6" s="5" customFormat="1">
+      <c r="B240" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F240" s="6"/>
+    </row>
+    <row r="241" spans="2:6" s="5" customFormat="1">
+      <c r="B241" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F241" s="6"/>
+    </row>
+    <row r="242" spans="2:6" s="5" customFormat="1">
+      <c r="B242" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F242" s="6"/>
+    </row>
+    <row r="243" spans="2:6" s="5" customFormat="1">
+      <c r="B243" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F243" s="6"/>
+    </row>
+    <row r="244" spans="2:6" s="5" customFormat="1">
+      <c r="B244" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F244" s="6"/>
+    </row>
+    <row r="245" spans="2:6" s="5" customFormat="1">
+      <c r="B245" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F245" s="6"/>
+    </row>
+    <row r="246" spans="2:6" s="5" customFormat="1">
+      <c r="B246" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F246" s="6"/>
+    </row>
+    <row r="247" spans="2:6" s="5" customFormat="1">
+      <c r="B247" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F247" s="6"/>
+    </row>
+    <row r="248" spans="2:6" s="5" customFormat="1">
+      <c r="B248" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F248" s="6"/>
+    </row>
+    <row r="249" spans="2:6" s="5" customFormat="1">
+      <c r="B249" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F249" s="6"/>
+    </row>
+    <row r="250" spans="2:6" s="5" customFormat="1">
+      <c r="B250" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="F250" s="6"/>
+    </row>
+    <row r="251" spans="2:6" s="5" customFormat="1">
+      <c r="B251" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F251" s="6"/>
+    </row>
+    <row r="252" spans="2:6" s="5" customFormat="1">
+      <c r="B252" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="F252" s="6"/>
+    </row>
+    <row r="253" spans="2:6" s="5" customFormat="1">
+      <c r="B253" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F253" s="6"/>
+    </row>
+    <row r="254" spans="2:6" s="5" customFormat="1">
+      <c r="B254" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="F254" s="6"/>
+    </row>
+    <row r="255" spans="2:6" s="5" customFormat="1">
+      <c r="B255" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="F255" s="6"/>
+    </row>
+    <row r="256" spans="2:6" s="5" customFormat="1">
+      <c r="B256" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F256" s="6"/>
+    </row>
+    <row r="257" spans="2:36" s="5" customFormat="1">
+      <c r="B257" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="F257" s="6"/>
+    </row>
+    <row r="258" spans="2:36" s="5" customFormat="1">
+      <c r="B258" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F258" s="6"/>
+    </row>
+    <row r="259" spans="2:36" s="5" customFormat="1">
+      <c r="B259" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F259" s="6"/>
+    </row>
+    <row r="260" spans="2:36" s="5" customFormat="1">
+      <c r="B260" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="F260" s="6"/>
+    </row>
+    <row r="261" spans="2:36" s="5" customFormat="1">
+      <c r="B261" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F261" s="6"/>
+    </row>
+    <row r="262" spans="2:36" s="5" customFormat="1">
+      <c r="B262" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="F262" s="6"/>
+    </row>
+    <row r="263" spans="2:36" s="5" customFormat="1">
+      <c r="B263" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F263" s="6"/>
+    </row>
+    <row r="264" spans="2:36" s="5" customFormat="1">
+      <c r="B264" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="F264" s="6"/>
+    </row>
+    <row r="265" spans="2:36" s="5" customFormat="1">
+      <c r="B265" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="F265" s="6"/>
+    </row>
+    <row r="266" spans="2:36" s="5" customFormat="1">
+      <c r="B266" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F266" s="6"/>
+    </row>
+    <row r="267" spans="2:36" s="5" customFormat="1">
+      <c r="B267" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="F267" s="6"/>
+    </row>
+    <row r="269" spans="2:36" s="5" customFormat="1">
+      <c r="B269" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D269" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E269" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F269" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="G269" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="H269" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="I269" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="J269" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="K269" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="L269" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="M269" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="N269" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="O269" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="P269" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q269" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="R269" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="S269" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="T269" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="U269" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="V269" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="W269" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="X269" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y269" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="Z269" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA269" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB269" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="AC269" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD269" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="AE269" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF269" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="AG269" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="AH269" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="AI269" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="AJ269" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="270" spans="2:36" s="5" customFormat="1">
+      <c r="B270" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D270" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E270" s="32">
+        <v>44577</v>
+      </c>
+      <c r="F270" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="G270" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="H270" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="I270" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="J270" s="5">
+        <v>20</v>
+      </c>
+      <c r="K270" s="5">
+        <v>3</v>
+      </c>
+      <c r="L270" s="33">
+        <v>36938.833333333336</v>
+      </c>
+      <c r="M270" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="N270" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="O270" s="5">
+        <v>20</v>
+      </c>
+      <c r="P270" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q270" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="R270" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="S270" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="T270" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="U270" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="V270" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="W270" s="39">
+        <v>0.82069986111111115</v>
+      </c>
+      <c r="X270" s="35">
+        <v>0.82069444444444439</v>
+      </c>
+      <c r="Y270" s="39">
+        <v>44577.820699861113</v>
+      </c>
+      <c r="Z270" s="39">
+        <v>44577.820699884258</v>
+      </c>
+      <c r="AA270" s="32">
+        <v>41470</v>
+      </c>
+      <c r="AB270" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC270" s="39">
+        <v>0.34402199074074075</v>
+      </c>
+      <c r="AD270" s="39">
+        <v>41470.344021990742</v>
+      </c>
+      <c r="AE270" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="AF270" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="AG270" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="AH270" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="AI270" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="AJ270" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="272" spans="2:36">
+      <c r="B272" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="273" spans="2:6" ht="22.5">
+      <c r="B273" s="40" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="274" spans="2:6" ht="19.5" thickBot="1"/>
+    <row r="275" spans="2:6" ht="19.5" thickBot="1">
+      <c r="B275" s="41" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="276" spans="2:6" ht="19.5" thickBot="1">
+      <c r="B276" s="41" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="277" spans="2:6" ht="19.5" thickBot="1">
+      <c r="B277" s="41" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="280" spans="2:6">
+      <c r="B280" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="281" spans="2:6" s="5" customFormat="1">
+      <c r="B281" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F281" s="6"/>
+    </row>
+    <row r="282" spans="2:6" s="5" customFormat="1">
+      <c r="B282" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="F282" s="6"/>
+    </row>
+    <row r="284" spans="2:6" s="5" customFormat="1">
+      <c r="B284" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="F284" s="6"/>
+    </row>
+    <row r="285" spans="2:6" s="5" customFormat="1">
+      <c r="B285" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C285" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="F285" s="6"/>
+    </row>
+    <row r="288" spans="2:6">
+      <c r="B288" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="B27" r:id="rId1" location="FUNCTIONS-DATETIME-TABLE" tooltip="表9.32 日付/時刻関数演算子" display="https://www.postgresql.jp/document/13/html/functions-datetime.html - FUNCTIONS-DATETIME-TABLE" xr:uid="{8909FCA4-97EB-4818-BBC1-7427088A860D}"/>
+    <hyperlink ref="B133" r:id="rId2" location="FUNCTIONS-DATETIME-CURRENT" tooltip="9.9.4. 現在の日付/時刻" display="https://www.postgresql.jp/document/13/html/functions-datetime.html - FUNCTIONS-DATETIME-CURRENT" xr:uid="{1FF4B728-FE56-46FA-A5AC-E9D3B167C841}"/>
+    <hyperlink ref="B136" r:id="rId3" location="FUNCTIONS-DATETIME-CURRENT" tooltip="9.9.4. 現在の日付/時刻" display="https://www.postgresql.jp/document/13/html/functions-datetime.html - FUNCTIONS-DATETIME-CURRENT" xr:uid="{A2B5FDFE-AECD-4831-91CB-BBD15E1A7AFB}"/>
+    <hyperlink ref="B139" r:id="rId4" location="FUNCTIONS-DATETIME-CURRENT" tooltip="9.9.4. 現在の日付/時刻" display="https://www.postgresql.jp/document/13/html/functions-datetime.html - FUNCTIONS-DATETIME-CURRENT" xr:uid="{F92A7AF7-6E23-49C0-8D96-EE1A8625C3F1}"/>
+    <hyperlink ref="B142" r:id="rId5" location="FUNCTIONS-DATETIME-CURRENT" tooltip="9.9.4. 現在の日付/時刻" display="https://www.postgresql.jp/document/13/html/functions-datetime.html - FUNCTIONS-DATETIME-CURRENT" xr:uid="{4EE2456E-5BC2-447B-AC0F-CBE4816B5C5C}"/>
+    <hyperlink ref="B145" r:id="rId6" location="FUNCTIONS-DATETIME-CURRENT" tooltip="9.9.4. 現在の日付/時刻" display="https://www.postgresql.jp/document/13/html/functions-datetime.html - FUNCTIONS-DATETIME-CURRENT" xr:uid="{C8F8F9BB-F556-40C8-9B10-88C36A85AB43}"/>
+    <hyperlink ref="B148" r:id="rId7" location="FUNCTIONS-DATETIME-CURRENT" tooltip="9.9.4. 現在の日付/時刻" display="https://www.postgresql.jp/document/13/html/functions-datetime.html - FUNCTIONS-DATETIME-CURRENT" xr:uid="{964604EB-F9DB-4FC2-88F3-80044D9E2067}"/>
+    <hyperlink ref="B151" r:id="rId8" location="FUNCTIONS-DATETIME-EXTRACT" tooltip="9.9.1. EXTRACT, date_part" display="https://www.postgresql.jp/document/13/html/functions-datetime.html - FUNCTIONS-DATETIME-EXTRACT" xr:uid="{05461F4A-9C93-4FA9-9990-44BE9CE39A48}"/>
+    <hyperlink ref="B154" r:id="rId9" location="FUNCTIONS-DATETIME-EXTRACT" tooltip="9.9.1. EXTRACT, date_part" display="https://www.postgresql.jp/document/13/html/functions-datetime.html - FUNCTIONS-DATETIME-EXTRACT" xr:uid="{83E76243-BF4F-4367-B529-95DA4B9BD632}"/>
+    <hyperlink ref="B157" r:id="rId10" location="FUNCTIONS-DATETIME-TRUNC" tooltip="9.9.2. date_trunc" display="https://www.postgresql.jp/document/13/html/functions-datetime.html - FUNCTIONS-DATETIME-TRUNC" xr:uid="{71BC8FD5-C2F9-45B4-A0A4-8131521F7A32}"/>
+    <hyperlink ref="B160" r:id="rId11" location="FUNCTIONS-DATETIME-TRUNC" tooltip="9.9.2. date_trunc" display="https://www.postgresql.jp/document/13/html/functions-datetime.html - FUNCTIONS-DATETIME-TRUNC" xr:uid="{6ACB7C38-F314-4C52-B6D1-D6223B575DBF}"/>
+    <hyperlink ref="B163" r:id="rId12" location="FUNCTIONS-DATETIME-TRUNC" tooltip="9.9.2. date_trunc" display="FUNCTIONS-DATETIME-TRUNC" xr:uid="{AC549958-ECDA-4CC7-938A-3AAAC2E65D2C}"/>
+    <hyperlink ref="B166" r:id="rId13" location="FUNCTIONS-DATETIME-EXTRACT" tooltip="9.9.1. EXTRACT, date_part" display="https://www.postgresql.jp/document/13/html/functions-datetime.html - FUNCTIONS-DATETIME-EXTRACT" xr:uid="{8C2AA5E1-94A6-4B82-A3B7-19C37794ED4C}"/>
+    <hyperlink ref="B169" r:id="rId14" location="FUNCTIONS-DATETIME-EXTRACT" tooltip="9.9.1. EXTRACT, date_part" display="https://www.postgresql.jp/document/13/html/functions-datetime.html - FUNCTIONS-DATETIME-EXTRACT" xr:uid="{1AEAB80C-3A7A-4115-B94A-F924D27852DD}"/>
+    <hyperlink ref="B190" r:id="rId15" location="FUNCTIONS-DATETIME-CURRENT" tooltip="9.9.4. 現在の日付/時刻" display="https://www.postgresql.jp/document/13/html/functions-datetime.html - FUNCTIONS-DATETIME-CURRENT" xr:uid="{E54DD4AB-A6CD-44D6-9E4E-44DED186FA4F}"/>
+    <hyperlink ref="B193" r:id="rId16" location="FUNCTIONS-DATETIME-CURRENT" tooltip="9.9.4. 現在の日付/時刻" display="https://www.postgresql.jp/document/13/html/functions-datetime.html - FUNCTIONS-DATETIME-CURRENT" xr:uid="{FA241C54-7359-4647-AECC-616C6B550082}"/>
+    <hyperlink ref="B196" r:id="rId17" location="FUNCTIONS-DATETIME-CURRENT" tooltip="9.9.4. 現在の日付/時刻" display="https://www.postgresql.jp/document/13/html/functions-datetime.html - FUNCTIONS-DATETIME-CURRENT" xr:uid="{B25454B7-1703-4871-8DD3-24DCB53C56F2}"/>
+    <hyperlink ref="B199" r:id="rId18" location="FUNCTIONS-DATETIME-CURRENT" tooltip="9.9.4. 現在の日付/時刻" display="https://www.postgresql.jp/document/13/html/functions-datetime.html - FUNCTIONS-DATETIME-CURRENT" xr:uid="{98D50360-B255-4443-A6A4-EDE9B179115A}"/>
+    <hyperlink ref="B217" r:id="rId19" location="FUNCTIONS-DATETIME-CURRENT" tooltip="9.9.4. 現在の日付/時刻" display="https://www.postgresql.jp/document/13/html/functions-datetime.html - FUNCTIONS-DATETIME-CURRENT" xr:uid="{58AB477D-01D5-44FA-91DA-6252A30CAEB8}"/>
+    <hyperlink ref="B220" r:id="rId20" location="FUNCTIONS-DATETIME-CURRENT" tooltip="9.9.4. 現在の日付/時刻" display="https://www.postgresql.jp/document/13/html/functions-datetime.html - FUNCTIONS-DATETIME-CURRENT" xr:uid="{36B78D0C-E8FC-4076-884A-6C0354084EE3}"/>
+    <hyperlink ref="B223" r:id="rId21" location="FUNCTIONS-DATETIME-CURRENT" tooltip="9.9.4. 現在の日付/時刻" display="https://www.postgresql.jp/document/13/html/functions-datetime.html - FUNCTIONS-DATETIME-CURRENT" xr:uid="{CD9427E9-BD90-420F-AE68-E312DAA4F516}"/>
+    <hyperlink ref="B226" r:id="rId22" location="FUNCTIONS-DATETIME-CURRENT" tooltip="9.9.4. 現在の日付/時刻" display="https://www.postgresql.jp/document/13/html/functions-datetime.html - FUNCTIONS-DATETIME-CURRENT" xr:uid="{9680ED8D-839A-42A7-B95F-31BAF8330B77}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>